--- a/Bio_Industries/Fuel Values.xlsx
+++ b/Bio_Industries/Fuel Values.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victorv\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2A2241-9817-4608-84DC-C2D68AA90F4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B6EF527-8821-4DDC-9BF8-326B30D4FB88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -327,9 +321,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,6 +358,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,7 +401,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749A5FC0-AA25-4A05-9A9E-FBC7B09440FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{749A5FC0-AA25-4A05-9A9E-FBC7B09440FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -468,7 +462,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D059D270-9F96-44D3-9963-20125397D1BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D059D270-9F96-44D3-9963-20125397D1BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -524,7 +518,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B5C8E6-57A0-4B6F-B0E2-A553169C1CCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5B5C8E6-57A0-4B6F-B0E2-A553169C1CCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -585,7 +579,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C156C8D-3F46-4B8C-938D-61F7F555BF09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C156C8D-3F46-4B8C-938D-61F7F555BF09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -641,7 +635,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD813AB-5911-4F5C-BF08-7365FA7B0279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FD813AB-5911-4F5C-BF08-7365FA7B0279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -702,7 +696,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18BF5A4-38E3-42F3-A5E5-81AF50770617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D18BF5A4-38E3-42F3-A5E5-81AF50770617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -763,7 +757,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EA11D2-190B-4594-B5CB-7CD375E1F8FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4EA11D2-190B-4594-B5CB-7CD375E1F8FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -824,7 +818,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86C4D9D-AA77-4E0D-A809-327EC19FDD4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E86C4D9D-AA77-4E0D-A809-327EC19FDD4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -885,7 +879,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247A6F0B-2008-4F2B-9C61-EA6D12875E24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{247A6F0B-2008-4F2B-9C61-EA6D12875E24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -946,7 +940,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661DD644-F34B-47A8-8C54-9E089150EEA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{661DD644-F34B-47A8-8C54-9E089150EEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,7 +1001,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF25B8B8-35D4-4197-B09B-E4D1F1731C21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF25B8B8-35D4-4197-B09B-E4D1F1731C21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1068,7 +1062,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC66E37-F1C0-44A1-BD52-AAFD1AAC7620}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DC66E37-F1C0-44A1-BD52-AAFD1AAC7620}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1129,7 +1123,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE3EEF3-C1AF-4C9D-ABBF-E6E30A5500F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFE3EEF3-C1AF-4C9D-ABBF-E6E30A5500F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1184,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA81856-1E22-4380-A987-527C8C6945A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AA81856-1E22-4380-A987-527C8C6945A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1251,7 +1245,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52D638D-85CF-45A9-9F5E-825327728319}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D52D638D-85CF-45A9-9F5E-825327728319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1312,7 +1306,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992D2C52-4A53-41C9-ACE6-0E66F4167629}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{992D2C52-4A53-41C9-ACE6-0E66F4167629}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,18 +1641,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3B0B70-1BC5-4900-B891-B92AFB4E3C0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:Q23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1686,26 +1680,26 @@
     <row r="5" spans="3:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="17"/>
+      <c r="M5" s="16"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="3:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="7"/>
@@ -1729,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="6"/>
@@ -1742,7 +1736,7 @@
       </c>
     </row>
     <row r="7" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
@@ -1752,10 +1746,10 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="21"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8"/>
@@ -1783,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="L8" s="8"/>
-      <c r="M8" s="23">
+      <c r="M8" s="22">
         <f>K8/G8</f>
         <v>1</v>
       </c>
@@ -1796,7 +1790,7 @@
       </c>
     </row>
     <row r="9" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="20"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
@@ -1806,10 +1800,10 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="21"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="8"/>
@@ -1830,27 +1824,27 @@
         <v>6</v>
       </c>
       <c r="J10" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="8">
         <f>J10*I10</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L10" s="8"/>
-      <c r="M10" s="23">
+      <c r="M10" s="22">
         <f>K10/G10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O10" s="1">
         <v>6</v>
       </c>
       <c r="Q10" s="2">
         <f>K10/O10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="20"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
@@ -1860,10 +1854,10 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="21"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="8"/>
@@ -1884,27 +1878,27 @@
         <v>5</v>
       </c>
       <c r="J12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="8">
         <f>J12*I12</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L12" s="8"/>
-      <c r="M12" s="23">
+      <c r="M12" s="22">
         <f>K12/G12</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O12" s="1">
         <v>5</v>
       </c>
       <c r="Q12" s="2">
         <f>K12/O12</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="20"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
@@ -1914,10 +1908,10 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="21"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="8"/>
@@ -1945,7 +1939,7 @@
         <v>30</v>
       </c>
       <c r="L14" s="8"/>
-      <c r="M14" s="23">
+      <c r="M14" s="22">
         <f>K14/G14</f>
         <v>1.25</v>
       </c>
@@ -1958,7 +1952,7 @@
       </c>
     </row>
     <row r="15" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="11"/>
@@ -1968,10 +1962,10 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
-      <c r="M15" s="21"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="8"/>
@@ -1999,7 +1993,7 @@
         <v>48</v>
       </c>
       <c r="L16" s="8"/>
-      <c r="M16" s="23">
+      <c r="M16" s="22">
         <f>K16/G16</f>
         <v>1.2</v>
       </c>
@@ -2012,7 +2006,7 @@
       </c>
     </row>
     <row r="17" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="20"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
@@ -2022,10 +2016,10 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="21"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="8"/>
@@ -2053,7 +2047,7 @@
         <v>48</v>
       </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="23">
+      <c r="M18" s="22">
         <f>K18/G18</f>
         <v>0.8</v>
       </c>
@@ -2066,7 +2060,7 @@
       </c>
     </row>
     <row r="19" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="11"/>
@@ -2076,10 +2070,10 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="24"/>
+      <c r="M19" s="23"/>
     </row>
     <row r="20" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="8"/>
@@ -2107,7 +2101,7 @@
         <v>72</v>
       </c>
       <c r="L20" s="8"/>
-      <c r="M20" s="23">
+      <c r="M20" s="22">
         <f>K20/G20</f>
         <v>1.2</v>
       </c>
@@ -2120,7 +2114,7 @@
       </c>
     </row>
     <row r="21" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="20"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
       <c r="F21" s="11"/>
@@ -2130,38 +2124,38 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="24"/>
+      <c r="M21" s="23"/>
     </row>
     <row r="22" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27">
+      <c r="D22" s="25"/>
+      <c r="E22" s="26">
         <v>10</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="25">
         <v>4</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="25">
         <f>F22*E22</f>
         <v>40</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="26">
         <v>2</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="25">
         <v>28</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="25">
         <f>J22*I22</f>
         <v>56</v>
       </c>
-      <c r="L22" s="26"/>
-      <c r="M22" s="29">
+      <c r="L22" s="25"/>
+      <c r="M22" s="28">
         <f>K22/G22</f>
         <v>1.4</v>
       </c>

--- a/Bio_Industries/Fuel Values.xlsx
+++ b/Bio_Industries/Fuel Values.xlsx
@@ -401,7 +401,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{749A5FC0-AA25-4A05-9A9E-FBC7B09440FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749A5FC0-AA25-4A05-9A9E-FBC7B09440FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -462,7 +462,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D059D270-9F96-44D3-9963-20125397D1BB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D059D270-9F96-44D3-9963-20125397D1BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -518,7 +518,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5B5C8E6-57A0-4B6F-B0E2-A553169C1CCF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B5C8E6-57A0-4B6F-B0E2-A553169C1CCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -579,7 +579,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C156C8D-3F46-4B8C-938D-61F7F555BF09}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C156C8D-3F46-4B8C-938D-61F7F555BF09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -635,7 +635,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FD813AB-5911-4F5C-BF08-7365FA7B0279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD813AB-5911-4F5C-BF08-7365FA7B0279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -696,7 +696,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D18BF5A4-38E3-42F3-A5E5-81AF50770617}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18BF5A4-38E3-42F3-A5E5-81AF50770617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -757,7 +757,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4EA11D2-190B-4594-B5CB-7CD375E1F8FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EA11D2-190B-4594-B5CB-7CD375E1F8FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -818,7 +818,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E86C4D9D-AA77-4E0D-A809-327EC19FDD4D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86C4D9D-AA77-4E0D-A809-327EC19FDD4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -879,7 +879,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{247A6F0B-2008-4F2B-9C61-EA6D12875E24}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247A6F0B-2008-4F2B-9C61-EA6D12875E24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -940,7 +940,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{661DD644-F34B-47A8-8C54-9E089150EEA4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661DD644-F34B-47A8-8C54-9E089150EEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +1001,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF25B8B8-35D4-4197-B09B-E4D1F1731C21}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF25B8B8-35D4-4197-B09B-E4D1F1731C21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1062,7 +1062,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DC66E37-F1C0-44A1-BD52-AAFD1AAC7620}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC66E37-F1C0-44A1-BD52-AAFD1AAC7620}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1123,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFE3EEF3-C1AF-4C9D-ABBF-E6E30A5500F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE3EEF3-C1AF-4C9D-ABBF-E6E30A5500F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,7 +1184,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AA81856-1E22-4380-A987-527C8C6945A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA81856-1E22-4380-A987-527C8C6945A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1245,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D52D638D-85CF-45A9-9F5E-825327728319}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52D638D-85CF-45A9-9F5E-825327728319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1306,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{992D2C52-4A53-41C9-ACE6-0E66F4167629}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992D2C52-4A53-41C9-ACE6-0E66F4167629}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1652,7 +1652,7 @@
   <dimension ref="C4:Q23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1836,11 +1836,11 @@
         <v>0.5</v>
       </c>
       <c r="O10" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="2">
         <f>K10/O10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1890,11 +1890,11 @@
         <v>0.5</v>
       </c>
       <c r="O12" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" s="2">
         <f>K12/O12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">

--- a/Bio_Industries/Fuel Values.xlsx
+++ b/Bio_Industries/Fuel Values.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>FUEL Value</t>
   </si>
@@ -82,6 +82,57 @@
   </si>
   <si>
     <t>Output #</t>
+  </si>
+  <si>
+    <t>Emissions Multiplier</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Solid Fuel</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>Woodpulp</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Pellet-Coal</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>Rocket Fuel</t>
+  </si>
+  <si>
+    <t>Crushed Coal</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>Cellulose Fiber</t>
+  </si>
+  <si>
+    <t>Wood Beick</t>
+  </si>
+  <si>
+    <t>Wood Pellets</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Nuclear Fuel</t>
+  </si>
+  <si>
+    <t>Enriched Fuel</t>
   </si>
 </sst>
 </file>
@@ -274,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,6 +414,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1331,6 +1385,907 @@
         <a:xfrm>
           <a:off x="3200400" y="7667625"/>
           <a:ext cx="371475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="371475" cy="371475"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661DD644-F34B-47A8-8C54-9E089150EEA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3295650" y="7219950"/>
+          <a:ext cx="371475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="371475" cy="361950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA81856-1E22-4380-A987-527C8C6945A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3305175" y="10306050"/>
+          <a:ext cx="371475" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3333750" y="6381750"/>
+          <a:ext cx="333375" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D059D270-9F96-44D3-9963-20125397D1BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3305175" y="7715250"/>
+          <a:ext cx="361950" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF25B8B8-35D4-4197-B09B-E4D1F1731C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3324225" y="8105775"/>
+          <a:ext cx="371475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52D638D-85CF-45A9-9F5E-825327728319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3324225" y="6810375"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="352425" cy="361950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B5C8E6-57A0-4B6F-B0E2-A553169C1CCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3333750" y="8982075"/>
+          <a:ext cx="352425" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3314700" y="9448800"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3343275" y="9886950"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3352800" y="9458325"/>
+          <a:ext cx="333375" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3352800" y="10782300"/>
+          <a:ext cx="333375" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3352800" y="11201400"/>
+          <a:ext cx="304800" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3371850" y="8582025"/>
+          <a:ext cx="323850" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3352800" y="9906000"/>
+          <a:ext cx="323850" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3305175" y="12982575"/>
+          <a:ext cx="314325" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3343275" y="12534900"/>
+          <a:ext cx="304800" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1649,10 +2604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:Q23"/>
+  <dimension ref="C4:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2168,7 +3123,234 @@
       </c>
     </row>
     <row r="23" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8">
+        <v>28</v>
+      </c>
+      <c r="G26" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8">
+        <v>50</v>
+      </c>
+      <c r="G27" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8">
+        <v>12</v>
+      </c>
+      <c r="G28" s="30">
+        <v>0.85</v>
+      </c>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8">
+        <v>3</v>
+      </c>
+      <c r="G29" s="30">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8">
+        <v>6</v>
+      </c>
+      <c r="G30" s="30">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="30">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+      <c r="G33" s="30">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8">
+        <v>8</v>
+      </c>
+      <c r="G34" s="30">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="8">
+        <v>20</v>
+      </c>
+      <c r="G35" s="30">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="8">
+        <v>100</v>
+      </c>
+      <c r="G36" s="30">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="8">
+        <v>2</v>
+      </c>
+      <c r="G37" s="30">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="G38" s="30">
+        <v>1.4</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="8">
+        <v>2</v>
+      </c>
+      <c r="G39" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="8">
+        <v>4</v>
+      </c>
+      <c r="G40" s="30">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="8">
+        <v>1200</v>
+      </c>
+      <c r="G41" s="30">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
   </sheetData>
+  <sortState ref="C26:G41">
+    <sortCondition ref="G26:G41"/>
+    <sortCondition ref="F26:F41"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="I5:K5"/>

--- a/Bio_Industries/Fuel Values.xlsx
+++ b/Bio_Industries/Fuel Values.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EMISSIONS" sheetId="2" r:id="rId1"/>
+    <sheet name="Fuel Production" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>FUEL Value</t>
   </si>
@@ -61,9 +62,6 @@
   </si>
   <si>
     <t>Advanced Coal Production</t>
-  </si>
-  <si>
-    <t>Pellet-coke</t>
   </si>
   <si>
     <t>Conversion Ratio</t>
@@ -120,9 +118,6 @@
     <t>Cellulose Fiber</t>
   </si>
   <si>
-    <t>Wood Beick</t>
-  </si>
-  <si>
     <t>Wood Pellets</t>
   </si>
   <si>
@@ -134,12 +129,33 @@
   <si>
     <t>Enriched Fuel</t>
   </si>
+  <si>
+    <t>Wood Brick</t>
+  </si>
+  <si>
+    <t>Wood Brick Production</t>
+  </si>
+  <si>
+    <t>Pellet-coke Production</t>
+  </si>
+  <si>
+    <t>&lt;-- Emission Neutral</t>
+  </si>
+  <si>
+    <t>Bob's</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Solid fuel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +178,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0066FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -177,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -320,12 +343,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,10 +460,22 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,6 +485,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0066FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -437,17 +503,1033 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="371475" cy="371475"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{661DD644-F34B-47A8-8C54-9E089150EEA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3295650" y="12573000"/>
+          <a:ext cx="371475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="371475" cy="361950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AA81856-1E22-4380-A987-527C8C6945A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3305175" y="9525000"/>
+          <a:ext cx="371475" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3333750" y="7791450"/>
+          <a:ext cx="333375" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D059D270-9F96-44D3-9963-20125397D1BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3305175" y="10877550"/>
+          <a:ext cx="361950" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF25B8B8-35D4-4197-B09B-E4D1F1731C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3324225" y="13020675"/>
+          <a:ext cx="371475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D52D638D-85CF-45A9-9F5E-825327728319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3171825" y="6905625"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="352425" cy="361950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5B5C8E6-57A0-4B6F-B0E2-A553169C1CCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3333750" y="9953625"/>
+          <a:ext cx="352425" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3314700" y="12172950"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3343275" y="11296650"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3352800" y="10429875"/>
+          <a:ext cx="333375" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3352800" y="11753850"/>
+          <a:ext cx="333375" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3171825" y="8667750"/>
+          <a:ext cx="304800" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3371850" y="9115425"/>
+          <a:ext cx="323850" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3352800" y="8248650"/>
+          <a:ext cx="323850" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3305175" y="7381875"/>
+          <a:ext cx="314325" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3343275" y="13506450"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3533775" y="6905625"/>
+          <a:ext cx="333375" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3505200" y="8667750"/>
+          <a:ext cx="352425" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -455,7 +1537,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749A5FC0-AA25-4A05-9A9E-FBC7B09440FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{749A5FC0-AA25-4A05-9A9E-FBC7B09440FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -502,13 +1584,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>371475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -516,7 +1598,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D059D270-9F96-44D3-9963-20125397D1BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D059D270-9F96-44D3-9963-20125397D1BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -563,7 +1645,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="352425" cy="361950"/>
@@ -572,7 +1654,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B5C8E6-57A0-4B6F-B0E2-A553169C1CCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5B5C8E6-57A0-4B6F-B0E2-A553169C1CCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -619,13 +1701,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -633,7 +1715,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C156C8D-3F46-4B8C-938D-61F7F555BF09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C156C8D-3F46-4B8C-938D-61F7F555BF09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -680,7 +1762,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="361950" cy="333375"/>
@@ -689,7 +1771,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD813AB-5911-4F5C-BF08-7365FA7B0279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FD813AB-5911-4F5C-BF08-7365FA7B0279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -736,13 +1818,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -750,7 +1832,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18BF5A4-38E3-42F3-A5E5-81AF50770617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D18BF5A4-38E3-42F3-A5E5-81AF50770617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -797,13 +1879,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -811,7 +1893,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EA11D2-190B-4594-B5CB-7CD375E1F8FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4EA11D2-190B-4594-B5CB-7CD375E1F8FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -858,13 +1940,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>371475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -872,7 +1954,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86C4D9D-AA77-4E0D-A809-327EC19FDD4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E86C4D9D-AA77-4E0D-A809-327EC19FDD4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -919,13 +2001,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -933,7 +2015,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247A6F0B-2008-4F2B-9C61-EA6D12875E24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{247A6F0B-2008-4F2B-9C61-EA6D12875E24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,13 +2062,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -994,7 +2076,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661DD644-F34B-47A8-8C54-9E089150EEA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{661DD644-F34B-47A8-8C54-9E089150EEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,22 +2122,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
+        <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF25B8B8-35D4-4197-B09B-E4D1F1731C21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DC66E37-F1C0-44A1-BD52-AAFD1AAC7620}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1065,67 +2147,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5648325" y="6924675"/>
-          <a:ext cx="371475" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC66E37-F1C0-44A1-BD52-AAFD1AAC7620}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1163,13 +2184,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>371475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1177,7 +2198,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE3EEF3-C1AF-4C9D-ABBF-E6E30A5500F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFE3EEF3-C1AF-4C9D-ABBF-E6E30A5500F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1224,13 +2245,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>371475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1238,7 +2259,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA81856-1E22-4380-A987-527C8C6945A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AA81856-1E22-4380-A987-527C8C6945A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1285,13 +2306,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>371475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1299,7 +2320,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52D638D-85CF-45A9-9F5E-825327728319}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D52D638D-85CF-45A9-9F5E-825327728319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,7 +2329,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1346,13 +2367,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>371475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1360,7 +2381,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992D2C52-4A53-41C9-ACE6-0E66F4167629}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{992D2C52-4A53-41C9-ACE6-0E66F4167629}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +2390,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1403,20 +2424,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="371475" cy="371475"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
+        <xdr:cNvPr id="45" name="Picture 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661DD644-F34B-47A8-8C54-9E089150EEA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4EA11D2-190B-4594-B5CB-7CD375E1F8FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,7 +2451,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1439,8 +2465,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3295650" y="7219950"/>
-          <a:ext cx="371475" cy="371475"/>
+          <a:off x="3124200" y="5715000"/>
+          <a:ext cx="361950" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1458,30 +2484,29 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="371475" cy="361950"/>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA81856-1E22-4380-A987-527C8C6945A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="48" name="Picture 47"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1495,8 +2520,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3305175" y="10306050"/>
-          <a:ext cx="371475" cy="361950"/>
+          <a:off x="5591175" y="5705475"/>
+          <a:ext cx="352425" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1514,29 +2539,29 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPr id="54" name="Picture 53"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1550,7 +2575,172 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3333750" y="6381750"/>
+          <a:off x="5610225" y="5857875"/>
+          <a:ext cx="314325" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3143250" y="5848350"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3143250" y="5543550"/>
+          <a:ext cx="352425" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5676900" y="5543550"/>
           <a:ext cx="333375" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1573,31 +2763,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D059D270-9F96-44D3-9963-20125397D1BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="63" name="Picture 62"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1611,8 +2795,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3305175" y="7715250"/>
-          <a:ext cx="361950" cy="333375"/>
+          <a:off x="3171825" y="5543550"/>
+          <a:ext cx="333375" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1633,23 +2817,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28">
+        <xdr:cNvPr id="64" name="Picture 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF25B8B8-35D4-4197-B09B-E4D1F1731C21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{992D2C52-4A53-41C9-ACE6-0E66F4167629}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +2842,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1672,7 +2856,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3324225" y="8105775"/>
+          <a:off x="5610225" y="4152900"/>
           <a:ext cx="371475" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1694,23 +2878,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29">
+        <xdr:cNvPr id="65" name="Picture 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52D638D-85CF-45A9-9F5E-825327728319}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D52D638D-85CF-45A9-9F5E-825327728319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +2903,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1733,559 +2917,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3324225" y="6810375"/>
+          <a:off x="5619750" y="5543550"/>
           <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="352425" cy="361950"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B5C8E6-57A0-4B6F-B0E2-A553169C1CCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3333750" y="8982075"/>
-          <a:ext cx="352425" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3314700" y="9448800"/>
-          <a:ext cx="333375" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3343275" y="9886950"/>
-          <a:ext cx="342900" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3352800" y="9458325"/>
-          <a:ext cx="333375" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3352800" y="10782300"/>
-          <a:ext cx="333375" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 42"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3352800" y="11201400"/>
-          <a:ext cx="304800" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3371850" y="8582025"/>
-          <a:ext cx="323850" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 46"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3352800" y="9906000"/>
-          <a:ext cx="323850" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3305175" y="12982575"/>
-          <a:ext cx="314325" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3343275" y="12534900"/>
-          <a:ext cx="304800" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2596,7 +3229,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2604,10 +3237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:Q41"/>
+  <dimension ref="C1:Q18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2631,63 +3264,393 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="29" t="s">
+    <row r="1" spans="3:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8">
+        <v>28</v>
+      </c>
+      <c r="G2" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8">
+        <v>50</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8">
+        <v>12</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" s="29">
+        <v>1.05</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8">
+        <v>20</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8">
+        <v>100</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1.25</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8">
+        <v>8</v>
+      </c>
+      <c r="G13" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="G15" s="29">
+        <v>1.6</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8">
+        <v>4</v>
+      </c>
+      <c r="G16" s="29">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="29">
         <v>5</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="29" t="s">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="3:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:Q31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="3:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="3:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="F4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="19"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
+        <f>F6*E6</f>
+        <v>4</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4</v>
+      </c>
+      <c r="J6" s="8">
         <v>1</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6" t="s">
-        <v>15</v>
+      <c r="K6" s="8">
+        <f>J6*I6</f>
+        <v>4</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="22">
+        <f>K6/G6</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>K6/O6</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2705,39 +3668,39 @@
     </row>
     <row r="8" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
         <f>F8*E8</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" s="8">
         <v>1</v>
       </c>
       <c r="K8" s="8">
         <f>J8*I8</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="22">
         <f>K8/G8</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="2">
         <f>K8/O8</f>
@@ -2759,31 +3722,31 @@
     </row>
     <row r="10" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F10" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="8">
         <f>F10*E10</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="8">
         <v>1</v>
       </c>
       <c r="K10" s="8">
         <f>J10*I10</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="22">
@@ -2791,7 +3754,7 @@
         <v>0.5</v>
       </c>
       <c r="O10" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" s="2">
         <f>K10/O10</f>
@@ -2813,18 +3776,18 @@
     </row>
     <row r="12" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8">
         <f>F12*E12</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>2</v>
@@ -2833,19 +3796,19 @@
         <v>5</v>
       </c>
       <c r="J12" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K12" s="8">
         <f>J12*I12</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="22">
         <f>K12/G12</f>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="O12" s="1">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="2">
         <f>K12/O12</f>
@@ -2867,43 +3830,43 @@
     </row>
     <row r="14" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="8">
         <f>F14*E14</f>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J14" s="8">
         <v>6</v>
       </c>
       <c r="K14" s="8">
         <f>J14*I14</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="22">
         <f>K14/G14</f>
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="O14" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="2">
         <f>K14/O14</f>
-        <v>2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2921,27 +3884,27 @@
     </row>
     <row r="16" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F16" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G16" s="8">
         <f>F16*E16</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I16" s="9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J16" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K16" s="8">
         <f>J16*I16</f>
@@ -2950,7 +3913,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="22">
         <f>K16/G16</f>
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="O16" s="1">
         <v>20</v>
@@ -2966,16 +3929,16 @@
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="12"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="20"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
@@ -2992,26 +3955,26 @@
         <v>2</v>
       </c>
       <c r="I18" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J18" s="8">
         <v>4</v>
       </c>
       <c r="K18" s="8">
         <f>J18*I18</f>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="22">
         <f>K18/G18</f>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="O18" s="1">
         <v>20</v>
       </c>
       <c r="Q18" s="2">
         <f>K18/O18</f>
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3027,45 +3990,45 @@
       <c r="L19" s="11"/>
       <c r="M19" s="23"/>
     </row>
-    <row r="20" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9">
-        <v>10</v>
-      </c>
-      <c r="F20" s="8">
-        <v>6</v>
-      </c>
-      <c r="G20" s="8">
+    <row r="20" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26">
+        <v>24</v>
+      </c>
+      <c r="F20" s="25">
+        <v>1</v>
+      </c>
+      <c r="G20" s="25">
         <f>F20*E20</f>
-        <v>60</v>
-      </c>
-      <c r="H20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="9">
-        <v>18</v>
-      </c>
-      <c r="J20" s="8">
+      <c r="I20" s="26">
+        <v>1</v>
+      </c>
+      <c r="J20" s="25">
+        <v>20</v>
+      </c>
+      <c r="K20" s="25">
+        <f>J20*I20</f>
+        <v>20</v>
+      </c>
+      <c r="L20" s="25"/>
+      <c r="M20" s="28">
+        <f>K20/G20</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O20" s="1">
         <v>4</v>
-      </c>
-      <c r="K20" s="8">
-        <f>J20*I20</f>
-        <v>72</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="22">
-        <f>K20/G20</f>
-        <v>1.2</v>
-      </c>
-      <c r="O20" s="1">
-        <v>20</v>
       </c>
       <c r="Q20" s="2">
         <f>K20/O20</f>
-        <v>3.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3083,18 +4046,18 @@
     </row>
     <row r="22" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="24" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F22" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" s="25">
         <f>F22*E22</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H22" s="27" t="s">
         <v>2</v>
@@ -3103,257 +4066,199 @@
         <v>2</v>
       </c>
       <c r="J22" s="25">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="K22" s="25">
         <f>J22*I22</f>
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="28">
         <f>K22/G22</f>
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="O22" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="2">
         <f>K22/O22</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="19"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="23"/>
+    </row>
+    <row r="24" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26">
+        <v>12</v>
+      </c>
+      <c r="F24" s="25">
+        <v>5</v>
+      </c>
+      <c r="G24" s="25">
+        <f>F24*E24</f>
+        <v>60</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="26">
+        <v>3</v>
+      </c>
+      <c r="J24" s="25">
+        <v>28</v>
+      </c>
+      <c r="K24" s="25">
+        <f>J24*I24</f>
+        <v>84</v>
+      </c>
+      <c r="L24" s="25"/>
+      <c r="M24" s="28">
+        <f>K24/G24</f>
+        <v>1.4</v>
+      </c>
+      <c r="O24" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>K24/O24</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="19"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26">
+        <v>10</v>
+      </c>
+      <c r="F26" s="25">
+        <v>4</v>
+      </c>
+      <c r="G26" s="25">
+        <f>F26*E26</f>
+        <v>40</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="26">
+        <v>2</v>
+      </c>
+      <c r="J26" s="25">
+        <v>28</v>
+      </c>
+      <c r="K26" s="25">
+        <f>J26*I26</f>
+        <v>56</v>
+      </c>
+      <c r="L26" s="25"/>
+      <c r="M26" s="28">
+        <f>K26/G26</f>
+        <v>1.4</v>
+      </c>
+      <c r="O26" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="2">
+        <f>K26/O26</f>
         <v>2.8</v>
       </c>
     </row>
-    <row r="23" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="3:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8">
-        <v>28</v>
-      </c>
-      <c r="G26" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8">
+    <row r="27" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="3:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26">
+        <v>20</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="25" t="e">
+        <f>F29*E29</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="26">
+        <v>2</v>
+      </c>
+      <c r="J29" s="25">
         <v>50</v>
       </c>
-      <c r="G27" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8">
-        <v>12</v>
-      </c>
-      <c r="G28" s="30">
-        <v>0.85</v>
-      </c>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8">
-        <v>3</v>
-      </c>
-      <c r="G29" s="30">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8">
-        <v>6</v>
-      </c>
-      <c r="G30" s="30">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="31" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-      <c r="G31" s="30">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="3:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="30">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="30">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8">
-        <v>8</v>
-      </c>
-      <c r="G34" s="30">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="8">
-        <v>20</v>
-      </c>
-      <c r="G35" s="30">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8">
+      <c r="K29" s="25">
+        <f>J29*I29</f>
         <v>100</v>
       </c>
-      <c r="G36" s="30">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="8">
-        <v>2</v>
-      </c>
-      <c r="G37" s="30">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="G38" s="30">
-        <v>1.4</v>
-      </c>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="8">
-        <v>2</v>
-      </c>
-      <c r="G39" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="8">
-        <v>4</v>
-      </c>
-      <c r="G40" s="30">
-        <v>2</v>
-      </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="8">
-        <v>1200</v>
-      </c>
-      <c r="G41" s="30">
-        <v>5</v>
-      </c>
-      <c r="I41" s="1"/>
-    </row>
+      <c r="L29" s="25"/>
+      <c r="M29" s="28" t="e">
+        <f>K29/G29</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q29" s="2" t="e">
+        <f>K29/O29</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="19"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="23"/>
+    </row>
+    <row r="31" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="C26:G41">
     <sortCondition ref="G26:G41"/>
     <sortCondition ref="F26:F41"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bio_Industries/Fuel Values.xlsx
+++ b/Bio_Industries/Fuel Values.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="EMISSIONS" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>FUEL Value</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Solid fuel</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,13 +472,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3239,14 +3245,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -3265,6 +3271,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3315,7 +3326,7 @@
       <c r="G4" s="29">
         <v>1</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>37</v>
       </c>
       <c r="I4" s="1"/>
@@ -3507,6 +3518,9 @@
       <c r="I18" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3517,7 +3531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:Q31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3544,17 +3558,17 @@
     <row r="3" spans="3:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="15"/>
       <c r="M3" s="16"/>
       <c r="N3" s="5"/>
@@ -4158,14 +4172,14 @@
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F26" s="25">
         <v>4</v>
       </c>
       <c r="G26" s="25">
         <f>F26*E26</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H26" s="27" t="s">
         <v>2</v>
@@ -4183,7 +4197,7 @@
       <c r="L26" s="25"/>
       <c r="M26" s="28">
         <f>K26/G26</f>
-        <v>1.4</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="O26" s="1">
         <v>20</v>
@@ -4195,7 +4209,7 @@
     </row>
     <row r="27" spans="3:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="3:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="33" t="s">
         <v>38</v>
       </c>
     </row>
